--- a/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Teras Napar.xlsx
+++ b/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Teras Napar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jamil\Work\MS BRIBox\PM\2\KC Payakumbuh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B28D1511-FAF3-4002-84B0-52835863492E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E0FA91-A703-4BE8-BBDC-A64AB520D066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form PM'!$A$7:$W$61</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1029,6 +1029,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,29 +1078,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1300,8 +1300,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V37" sqref="A1:V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1333,28 +1333,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="91"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
@@ -1468,10 +1468,10 @@
       <c r="T7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="92" t="s">
+      <c r="U7" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="93"/>
+      <c r="V7" s="102"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
@@ -2299,13 +2299,13 @@
       <c r="B25" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D25" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="100"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="84" t="s">
         <v>64</v>
       </c>
@@ -2328,37 +2328,37 @@
       <c r="Q25" s="79"/>
       <c r="R25" s="79"/>
       <c r="S25" s="80"/>
-      <c r="T25" s="101" t="s">
+      <c r="T25" s="89" t="s">
         <v>60</v>
       </c>
       <c r="U25" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="V25" s="79"/>
+      <c r="V25" s="54"/>
       <c r="W25" s="49"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="93"/>
       <c r="V26" s="49"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2367,14 +2367,14 @@
       <c r="C27" s="82"/>
       <c r="D27" s="82"/>
       <c r="K27" s="49"/>
-      <c r="Q27" s="87" t="s">
+      <c r="Q27" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81"/>
@@ -2383,14 +2383,14 @@
       <c r="D28" s="82"/>
       <c r="E28" s="82"/>
       <c r="L28" s="49"/>
-      <c r="Q28" s="94" t="s">
+      <c r="Q28" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81"/>
@@ -2459,13 +2459,13 @@
       <c r="D35" s="82"/>
       <c r="E35" s="82"/>
       <c r="L35" s="49"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="T35" s="87" t="s">
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="T35" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
+      <c r="U35" s="96"/>
+      <c r="V35" s="96"/>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="81"/>
@@ -2474,15 +2474,15 @@
       <c r="D36" s="82"/>
       <c r="E36" s="82"/>
       <c r="L36" s="49"/>
-      <c r="Q36" s="88" t="s">
+      <c r="Q36" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="R36" s="88"/>
-      <c r="T36" s="87" t="s">
+      <c r="R36" s="97"/>
+      <c r="T36" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="U36" s="87"/>
-      <c r="V36" s="87"/>
+      <c r="U36" s="96"/>
+      <c r="V36" s="96"/>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="81"/>
@@ -2504,12 +2504,12 @@
       <c r="C38" s="82"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
       <c r="I38" s="82"/>
       <c r="J38" s="82"/>
-      <c r="K38" s="102"/>
+      <c r="K38" s="90"/>
       <c r="L38" s="49"/>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2518,12 +2518,12 @@
       <c r="C39" s="82"/>
       <c r="D39" s="82"/>
       <c r="E39" s="82"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
       <c r="I39" s="82"/>
       <c r="J39" s="82"/>
-      <c r="K39" s="102"/>
+      <c r="K39" s="90"/>
       <c r="L39" s="49"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2532,12 +2532,12 @@
       <c r="C40" s="82"/>
       <c r="D40" s="82"/>
       <c r="E40" s="82"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
       <c r="I40" s="82"/>
       <c r="J40" s="82"/>
-      <c r="K40" s="102"/>
+      <c r="K40" s="90"/>
       <c r="L40" s="49"/>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6711,28 +6711,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="91"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6840,10 +6840,10 @@
       <c r="T7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="92" t="s">
+      <c r="U7" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="93"/>
+      <c r="V7" s="102"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
@@ -10026,19 +10026,19 @@
     </row>
     <row r="128" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D128" s="2"/>
-      <c r="Q128" s="95" t="s">
+      <c r="Q128" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="R128" s="96"/>
-      <c r="S128" s="96"/>
+      <c r="R128" s="105"/>
+      <c r="S128" s="105"/>
     </row>
     <row r="129" spans="4:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D129" s="2"/>
-      <c r="Q129" s="97" t="s">
+      <c r="Q129" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R129" s="96"/>
-      <c r="S129" s="96"/>
+      <c r="R129" s="105"/>
+      <c r="S129" s="105"/>
     </row>
     <row r="130" spans="4:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D130" s="2"/>
